--- a/results/scale/sigma_grouped_wide_with_scale.xlsx
+++ b/results/scale/sigma_grouped_wide_with_scale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,105 +436,100 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>subj_idx</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>subj_idx</t>
+          <t>emotion_negative_negative</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negative_negative</t>
+          <t>emotion_negative_positive</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negative_positive</t>
+          <t>emotion_positive_negative</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positive_negative</t>
+          <t>emotion_positive_positive</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positive_positive</t>
+          <t>shape_negative_negative</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>shape_negative_negative</t>
+          <t>shape_negative_positive</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>shape_negative_positive</t>
+          <t>shape_positive_negative</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>shape_positive_negative</t>
+          <t>shape_positive_positive</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>shape_positive_positive</t>
+          <t>emotion_positivePrimeIndex</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positivePrimeIndex</t>
+          <t>emotion_negativePrimeIndex</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negativePrimeIndex</t>
+          <t>shape_positivePrimeIndex</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>shape_positivePrimeIndex</t>
+          <t>shape_negativePrimeIndex</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>shape_negativePrimeIndex</t>
+          <t>shape_positivePrime-negativePrime</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>shape_positivePrime-negativePrime</t>
+          <t>emotion_positivePrime-negativePrime</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positivePrime-negativePrime</t>
+          <t>test</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>name</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>anxiety</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>anxiety</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>HAMD</t>
         </is>
@@ -543,3544 +538,3294 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>56189087</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>1.320593763155653</v>
+      </c>
       <c r="C2" t="n">
-        <v>1.320593763155653</v>
+        <v>1.682128357476252</v>
       </c>
       <c r="D2" t="n">
-        <v>1.682128357476252</v>
+        <v>0.8662112493141204</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8662112493141204</v>
+        <v>1.70120059948052</v>
       </c>
       <c r="F2" t="n">
-        <v>1.70120059948052</v>
+        <v>1.952587729182119</v>
       </c>
       <c r="G2" t="n">
-        <v>1.952587729182119</v>
+        <v>1.927145490845334</v>
       </c>
       <c r="H2" t="n">
-        <v>1.927145490845334</v>
+        <v>1.1082364719001</v>
       </c>
       <c r="I2" t="n">
-        <v>1.1082364719001</v>
+        <v>0.93044146407398</v>
       </c>
       <c r="J2" t="n">
-        <v>0.93044146407398</v>
+        <v>-0.4543825138415322</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.8349893501663995</v>
+        <v>-0.01907224200426816</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.3615345943205992</v>
+        <v>-0.8443512572820187</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1777950078261203</v>
+        <v>0.9967040267713541</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02544223833678494</v>
+        <v>-1.841055284053373</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.841055284053373</v>
+        <v>-0.4353102718372641</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.4353102718372641</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-0.3211019863564649</v>
-      </c>
-      <c r="R2" t="inlineStr">
+        <v>-2.276365555890637</v>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>钟文霞</t>
         </is>
       </c>
+      <c r="R2" t="n">
+        <v>18</v>
+      </c>
       <c r="S2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="T2" t="n">
-        <v>13</v>
-      </c>
-      <c r="U2" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>56277415</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>1.753072454640346</v>
+      </c>
       <c r="C3" t="n">
-        <v>1.753072454640346</v>
+        <v>1.809424815567648</v>
       </c>
       <c r="D3" t="n">
-        <v>1.809424815567648</v>
+        <v>1.244872518770617</v>
       </c>
       <c r="E3" t="n">
-        <v>1.244872518770617</v>
+        <v>1.978832953674586</v>
       </c>
       <c r="F3" t="n">
-        <v>1.978832953674586</v>
+        <v>0.9006888280892221</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9006888280892221</v>
+        <v>1.300365597043665</v>
       </c>
       <c r="H3" t="n">
-        <v>1.300365597043665</v>
+        <v>1.828744815774773</v>
       </c>
       <c r="I3" t="n">
-        <v>1.828744815774773</v>
+        <v>1.67797429659258</v>
       </c>
       <c r="J3" t="n">
-        <v>1.67797429659258</v>
+        <v>-0.5081999358697296</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.733960434903969</v>
+        <v>-0.1694081381069374</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.056352360927302</v>
+        <v>0.9280559876855506</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1507705191821931</v>
+        <v>-0.3776086995489145</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.399676768954443</v>
+        <v>1.305664687234465</v>
       </c>
       <c r="O3" t="n">
-        <v>1.305664687234465</v>
+        <v>-0.3387917977627923</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.3387917977627923</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-0.1271607858400309</v>
-      </c>
-      <c r="R3" t="inlineStr">
+        <v>0.966872889471673</v>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>孔张骋</t>
         </is>
       </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>56279808</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>1.578733004841555</v>
+      </c>
       <c r="C4" t="n">
-        <v>1.578733004841555</v>
+        <v>1.453164314463586</v>
       </c>
       <c r="D4" t="n">
-        <v>1.453164314463586</v>
+        <v>1.695734229841519</v>
       </c>
       <c r="E4" t="n">
-        <v>1.695734229841519</v>
+        <v>1.822587637009621</v>
       </c>
       <c r="F4" t="n">
-        <v>1.822587637009621</v>
+        <v>1.829281451140396</v>
       </c>
       <c r="G4" t="n">
-        <v>1.829281451140396</v>
+        <v>1.867584994200982</v>
       </c>
       <c r="H4" t="n">
-        <v>1.867584994200982</v>
+        <v>1.606637129129109</v>
       </c>
       <c r="I4" t="n">
-        <v>1.606637129129109</v>
+        <v>1.45540836789231</v>
       </c>
       <c r="J4" t="n">
-        <v>1.45540836789231</v>
+        <v>0.1170012249999637</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1268534071681022</v>
+        <v>-0.3694233225460348</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1255686903779689</v>
+        <v>-0.2226443220112866</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1512287612367993</v>
+        <v>0.4121766263086717</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.03830354306058581</v>
+        <v>-0.6348209483199581</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.6348209483199581</v>
+        <v>0.4864245475459987</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4864245475459987</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>-0.06288979324868604</v>
-      </c>
-      <c r="R4" t="inlineStr">
+        <v>-0.1483964007739598</v>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>戴俞锋</t>
         </is>
+      </c>
+      <c r="R4" t="n">
+        <v>16</v>
       </c>
       <c r="S4" t="n">
         <v>16</v>
       </c>
       <c r="T4" t="n">
-        <v>16</v>
-      </c>
-      <c r="U4" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>56343776</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>1.984713130580494</v>
+      </c>
       <c r="C5" t="n">
-        <v>1.984713130580494</v>
+        <v>1.630481403899132</v>
       </c>
       <c r="D5" t="n">
-        <v>1.630481403899132</v>
+        <v>1.368204687449503</v>
       </c>
       <c r="E5" t="n">
-        <v>1.368204687449503</v>
+        <v>1.503446457021016</v>
       </c>
       <c r="F5" t="n">
-        <v>1.503446457021016</v>
+        <v>1.743036015776444</v>
       </c>
       <c r="G5" t="n">
-        <v>1.743036015776444</v>
+        <v>1.573444975169994</v>
       </c>
       <c r="H5" t="n">
-        <v>1.573444975169994</v>
+        <v>0.9524588708567496</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9524588708567496</v>
+        <v>1.313103774066793</v>
       </c>
       <c r="J5" t="n">
-        <v>1.313103774066793</v>
+        <v>-0.6165084431309913</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1352417695715127</v>
+        <v>0.1270349468781167</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3542317266813619</v>
+        <v>-0.7905771449196939</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.3606449032100436</v>
+        <v>0.2603412011032005</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1695910406064498</v>
+        <v>-1.050918346022894</v>
       </c>
       <c r="O5" t="n">
-        <v>-1.050918346022894</v>
+        <v>-0.7435433900091075</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.7435433900091075</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-1.019709440069368</v>
-      </c>
-      <c r="R5" t="inlineStr">
+        <v>-1.794461736032002</v>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>蒲柳衣</t>
         </is>
       </c>
+      <c r="R5" t="n">
+        <v>6</v>
+      </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>56346638</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>0.7119442619957482</v>
+      </c>
       <c r="C6" t="n">
-        <v>0.7119442619957482</v>
+        <v>0.746104754014941</v>
       </c>
       <c r="D6" t="n">
-        <v>0.746104754014941</v>
+        <v>1.453610459057096</v>
       </c>
       <c r="E6" t="n">
-        <v>1.453610459057096</v>
+        <v>1.93496827829793</v>
       </c>
       <c r="F6" t="n">
-        <v>1.93496827829793</v>
+        <v>1.295602955088019</v>
       </c>
       <c r="G6" t="n">
-        <v>1.295602955088019</v>
+        <v>1.729511367110729</v>
       </c>
       <c r="H6" t="n">
-        <v>1.729511367110729</v>
+        <v>1.359784181899617</v>
       </c>
       <c r="I6" t="n">
-        <v>1.359784181899617</v>
+        <v>0.906798276151915</v>
       </c>
       <c r="J6" t="n">
-        <v>0.906798276151915</v>
+        <v>0.7416661970613477</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.4813578192408337</v>
+        <v>-1.188863524282989</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0341604920191928</v>
+        <v>0.06418122681159821</v>
       </c>
       <c r="M6" t="n">
-        <v>0.452985905747702</v>
+        <v>0.8227130909588137</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.4339084120227099</v>
+        <v>-0.7585318641472156</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.7585318641472156</v>
+        <v>1.930529721344337</v>
       </c>
       <c r="P6" t="n">
-        <v>1.930529721344337</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.4396969905487711</v>
-      </c>
-      <c r="R6" t="inlineStr">
+        <v>1.171997857197121</v>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>许乔峰</t>
         </is>
       </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U6" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t>56352066</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>1.205164498633725</v>
+      </c>
       <c r="C7" t="n">
-        <v>1.205164498633725</v>
+        <v>1.73877581653998</v>
       </c>
       <c r="D7" t="n">
-        <v>1.73877581653998</v>
+        <v>1.892176974945574</v>
       </c>
       <c r="E7" t="n">
-        <v>1.892176974945574</v>
+        <v>1.345198349936524</v>
       </c>
       <c r="F7" t="n">
-        <v>1.345198349936524</v>
+        <v>1.619006198149951</v>
       </c>
       <c r="G7" t="n">
-        <v>1.619006198149951</v>
+        <v>1.221562704328045</v>
       </c>
       <c r="H7" t="n">
-        <v>1.221562704328045</v>
+        <v>1.63753036535606</v>
       </c>
       <c r="I7" t="n">
-        <v>1.63753036535606</v>
+        <v>1.506811928241355</v>
       </c>
       <c r="J7" t="n">
-        <v>1.506811928241355</v>
+        <v>0.6870124763118493</v>
       </c>
       <c r="K7" t="n">
-        <v>0.54697862500905</v>
+        <v>0.3935774666034557</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.5336113179062549</v>
+        <v>0.01852416720610939</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1307184371147052</v>
+        <v>-0.2852492239133098</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3974434938219056</v>
+        <v>0.3037733911194191</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3037733911194191</v>
+        <v>0.2934350097083933</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2934350097083933</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.8138648862081046</v>
-      </c>
-      <c r="R7" t="inlineStr">
+        <v>0.5972084008278127</v>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>周鼎</t>
         </is>
       </c>
+      <c r="R7" t="n">
+        <v>10</v>
+      </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T7" t="n">
-        <v>13</v>
-      </c>
-      <c r="U7" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>56354957</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>0.9413455448669646</v>
+      </c>
       <c r="C8" t="n">
-        <v>0.9413455448669646</v>
+        <v>1.35532168657884</v>
       </c>
       <c r="D8" t="n">
-        <v>1.35532168657884</v>
+        <v>1.765819024493122</v>
       </c>
       <c r="E8" t="n">
-        <v>1.765819024493122</v>
+        <v>1.339664095644183</v>
       </c>
       <c r="F8" t="n">
-        <v>1.339664095644183</v>
+        <v>1.632977410009416</v>
       </c>
       <c r="G8" t="n">
-        <v>1.632977410009416</v>
+        <v>1.295847795765113</v>
       </c>
       <c r="H8" t="n">
-        <v>1.295847795765113</v>
+        <v>1.757517450860672</v>
       </c>
       <c r="I8" t="n">
-        <v>1.757517450860672</v>
+        <v>1.129807058698138</v>
       </c>
       <c r="J8" t="n">
-        <v>1.129807058698138</v>
+        <v>0.8244734796261576</v>
       </c>
       <c r="K8" t="n">
-        <v>0.426154928848939</v>
+        <v>0.01565759093465702</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.4139761417118756</v>
+        <v>0.1245400408512556</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6277103921625338</v>
+        <v>0.1660407370669752</v>
       </c>
       <c r="N8" t="n">
-        <v>0.337129614244303</v>
+        <v>-0.04150069621571939</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.04150069621571939</v>
+        <v>0.8088158886915005</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8088158886915005</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.130711848479045</v>
-      </c>
-      <c r="R8" t="inlineStr">
+        <v>0.7673151924757809</v>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>肖方睿</t>
         </is>
       </c>
+      <c r="R8" t="n">
+        <v>11</v>
+      </c>
       <c r="S8" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
-      </c>
-      <c r="U8" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
           <t>56358294</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>1.66817571539827</v>
+      </c>
       <c r="C9" t="n">
-        <v>1.66817571539827</v>
+        <v>0.6711422805142642</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6711422805142642</v>
+        <v>1.635004026733788</v>
       </c>
       <c r="E9" t="n">
-        <v>1.635004026733788</v>
+        <v>1.36058801100391</v>
       </c>
       <c r="F9" t="n">
-        <v>1.36058801100391</v>
+        <v>1.799384205985412</v>
       </c>
       <c r="G9" t="n">
-        <v>1.799384205985412</v>
+        <v>0.7901171804443632</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7901171804443632</v>
+        <v>0.7993677541476142</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7993677541476142</v>
+        <v>1.378348308024188</v>
       </c>
       <c r="J9" t="n">
-        <v>1.378348308024188</v>
+        <v>-0.0331716886644815</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2744160157298787</v>
+        <v>-0.6894457304896455</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9970334348840058</v>
+        <v>-1.000016451837798</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.5789805538765734</v>
+        <v>-0.5882311275798244</v>
       </c>
       <c r="N9" t="n">
-        <v>1.009267025541049</v>
+        <v>-0.4117853242579734</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.4117853242579734</v>
+        <v>0.656274041825164</v>
       </c>
       <c r="P9" t="n">
-        <v>0.656274041825164</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>-2.310864998571749</v>
-      </c>
-      <c r="R9" t="inlineStr">
+        <v>0.2444887175671906</v>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>钟福琳</t>
         </is>
       </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
           <t>56362338</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>1.038965544638363</v>
+      </c>
       <c r="C10" t="n">
-        <v>1.038965544638363</v>
+        <v>1.92239658084732</v>
       </c>
       <c r="D10" t="n">
-        <v>1.92239658084732</v>
+        <v>1.931378396802058</v>
       </c>
       <c r="E10" t="n">
-        <v>1.931378396802058</v>
+        <v>1.67014132901916</v>
       </c>
       <c r="F10" t="n">
-        <v>1.67014132901916</v>
+        <v>1.725982126401277</v>
       </c>
       <c r="G10" t="n">
-        <v>1.725982126401277</v>
+        <v>1.74878051784685</v>
       </c>
       <c r="H10" t="n">
-        <v>1.74878051784685</v>
+        <v>1.436768126919745</v>
       </c>
       <c r="I10" t="n">
-        <v>1.436768126919745</v>
+        <v>1.491079103416179</v>
       </c>
       <c r="J10" t="n">
-        <v>1.491079103416179</v>
+        <v>0.8924128521636951</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2612370677828975</v>
+        <v>0.2522552518281596</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.8834310362089572</v>
+        <v>-0.2892139994815317</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.05431097649643357</v>
+        <v>0.2577014144306713</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.02279839144557316</v>
+        <v>-0.546915413912203</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.546915413912203</v>
+        <v>0.6401576003355358</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6401576003355358</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.113155518940994</v>
-      </c>
-      <c r="R10" t="inlineStr">
+        <v>0.0932421864233326</v>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>陆鸿运</t>
         </is>
       </c>
+      <c r="R10" t="n">
+        <v>12</v>
+      </c>
       <c r="S10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
-      </c>
-      <c r="U10" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
           <t>56365025</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>1.888554962886701</v>
+      </c>
       <c r="C11" t="n">
-        <v>1.888554962886701</v>
+        <v>1.717690803663045</v>
       </c>
       <c r="D11" t="n">
-        <v>1.717690803663045</v>
+        <v>1.506523663754138</v>
       </c>
       <c r="E11" t="n">
-        <v>1.506523663754138</v>
+        <v>1.444127611277559</v>
       </c>
       <c r="F11" t="n">
-        <v>1.444127611277559</v>
+        <v>0.7785064732741663</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7785064732741663</v>
+        <v>1.483077016215563</v>
       </c>
       <c r="H11" t="n">
-        <v>1.483077016215563</v>
+        <v>1.939831790545191</v>
       </c>
       <c r="I11" t="n">
-        <v>1.939831790545191</v>
+        <v>1.052263788792532</v>
       </c>
       <c r="J11" t="n">
-        <v>1.052263788792532</v>
+        <v>-0.3820312991325627</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06239605247657898</v>
+        <v>0.2735631923854855</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1708641592236562</v>
+        <v>1.161325317271025</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8875680017526588</v>
+        <v>0.4308132274230303</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.7045705429413963</v>
+        <v>0.7305120898479944</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7305120898479944</v>
+        <v>-0.6555944915180483</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.6555944915180483</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.483670437946978</v>
-      </c>
-      <c r="R11" t="inlineStr">
+        <v>0.07491759832994616</v>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>季志强</t>
         </is>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
       </c>
       <c r="S11" t="n">
         <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
           <t>56367536</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>1.635312697747042</v>
+      </c>
       <c r="C12" t="n">
-        <v>1.635312697747042</v>
+        <v>0.7210955278399566</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7210955278399566</v>
+        <v>1.515266403648826</v>
       </c>
       <c r="E12" t="n">
-        <v>1.515266403648826</v>
+        <v>1.938163456437415</v>
       </c>
       <c r="F12" t="n">
-        <v>1.938163456437415</v>
+        <v>1.209041022659094</v>
       </c>
       <c r="G12" t="n">
-        <v>1.209041022659094</v>
+        <v>1.147989936416168</v>
       </c>
       <c r="H12" t="n">
-        <v>1.147989936416168</v>
+        <v>0.8679342808196313</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8679342808196313</v>
+        <v>1.355003919611968</v>
       </c>
       <c r="J12" t="n">
-        <v>1.355003919611968</v>
+        <v>-0.1200462940982157</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.4228970527885891</v>
+        <v>-1.217067928597459</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9142171699070855</v>
+        <v>-0.3411067418394629</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.487069638792337</v>
+        <v>-0.2070139831958002</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0610510862429261</v>
+        <v>-0.1340927586436629</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.1340927586436629</v>
+        <v>1.097021634499244</v>
       </c>
       <c r="P12" t="n">
-        <v>1.097021634499244</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>-1.885234947730938</v>
-      </c>
-      <c r="R12" t="inlineStr">
+        <v>0.9629288758555807</v>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>徐昕睿</t>
         </is>
       </c>
+      <c r="R12" t="n">
+        <v>9</v>
+      </c>
       <c r="S12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
-      </c>
-      <c r="U12" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
           <t>56696990</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>1.731930817807783</v>
+      </c>
       <c r="C13" t="n">
-        <v>1.731930817807783</v>
+        <v>1.852890226122785</v>
       </c>
       <c r="D13" t="n">
-        <v>1.852890226122785</v>
+        <v>1.738095015601874</v>
       </c>
       <c r="E13" t="n">
-        <v>1.738095015601874</v>
+        <v>1.949686815321378</v>
       </c>
       <c r="F13" t="n">
-        <v>1.949686815321378</v>
+        <v>0.7068307488157125</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7068307488157125</v>
+        <v>0.9817185434698504</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9817185434698504</v>
+        <v>1.531434280317931</v>
       </c>
       <c r="I13" t="n">
-        <v>1.531434280317931</v>
+        <v>1.70775305765344</v>
       </c>
       <c r="J13" t="n">
-        <v>1.70775305765344</v>
+        <v>0.006164197794091608</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.2115917997195031</v>
+        <v>-0.09679658919859269</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.1209594083150021</v>
+        <v>0.8246035315022188</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.1763187773355088</v>
+        <v>-0.7260345141835897</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.2748877946541379</v>
+        <v>1.550638045685808</v>
       </c>
       <c r="O13" t="n">
-        <v>1.550638045685808</v>
+        <v>0.1029607869926847</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1029607869926847</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.007936625914128026</v>
-      </c>
-      <c r="R13" t="inlineStr">
+        <v>1.653598832678493</v>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>张屿嘉</t>
         </is>
       </c>
+      <c r="R13" t="n">
+        <v>20</v>
+      </c>
       <c r="S13" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="T13" t="n">
-        <v>14</v>
-      </c>
-      <c r="U13" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
           <t>56702182</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>1.371859614840971</v>
+      </c>
       <c r="C14" t="n">
-        <v>1.371859614840971</v>
+        <v>1.64639718175513</v>
       </c>
       <c r="D14" t="n">
-        <v>1.64639718175513</v>
+        <v>1.465736337056568</v>
       </c>
       <c r="E14" t="n">
-        <v>1.465736337056568</v>
+        <v>1.590881726717909</v>
       </c>
       <c r="F14" t="n">
-        <v>1.590881726717909</v>
+        <v>1.584813352843169</v>
       </c>
       <c r="G14" t="n">
-        <v>1.584813352843169</v>
+        <v>1.900144941348993</v>
       </c>
       <c r="H14" t="n">
-        <v>1.900144941348993</v>
+        <v>1.32971531787526</v>
       </c>
       <c r="I14" t="n">
-        <v>1.32971531787526</v>
+        <v>1.312126655664728</v>
       </c>
       <c r="J14" t="n">
-        <v>1.312126655664728</v>
+        <v>0.09387672221559695</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.1251453896613408</v>
+        <v>0.055515455037221</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.2745375669141588</v>
+        <v>-0.2550980349679084</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01758866221053235</v>
+        <v>0.5880182856842651</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.3153315885058243</v>
+        <v>-0.8431163206521735</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.8431163206521735</v>
+        <v>0.03836126717837596</v>
       </c>
       <c r="P14" t="n">
-        <v>0.03836126717837596</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.4823124279691746</v>
-      </c>
-      <c r="R14" t="inlineStr">
+        <v>-0.8047550534737975</v>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>于胡倩</t>
         </is>
       </c>
+      <c r="R14" t="n">
+        <v>8</v>
+      </c>
       <c r="S14" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T14" t="n">
-        <v>14</v>
-      </c>
-      <c r="U14" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
           <t>56708148</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>1.088369580012977</v>
+      </c>
       <c r="C15" t="n">
-        <v>1.088369580012977</v>
+        <v>1.719600108226083</v>
       </c>
       <c r="D15" t="n">
-        <v>1.719600108226083</v>
+        <v>1.820645020763142</v>
       </c>
       <c r="E15" t="n">
-        <v>1.820645020763142</v>
+        <v>1.15717546955342</v>
       </c>
       <c r="F15" t="n">
-        <v>1.15717546955342</v>
+        <v>1.653183908219986</v>
       </c>
       <c r="G15" t="n">
-        <v>1.653183908219986</v>
+        <v>1.212128458530976</v>
       </c>
       <c r="H15" t="n">
-        <v>1.212128458530976</v>
+        <v>1.864590995964328</v>
       </c>
       <c r="I15" t="n">
-        <v>1.864590995964328</v>
+        <v>1.336866674217048</v>
       </c>
       <c r="J15" t="n">
-        <v>1.336866674217048</v>
+        <v>0.7322754407501653</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6634695512097226</v>
+        <v>0.5624246386726635</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.6312305282131061</v>
+        <v>0.2114070877443419</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5277243217472802</v>
+        <v>-0.1247382156860726</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4410554496890109</v>
+        <v>0.3361453034304147</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3361453034304147</v>
+        <v>0.1698508020775016</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1698508020775016</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.381368951481098</v>
-      </c>
-      <c r="R15" t="inlineStr">
+        <v>0.5059961055079163</v>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>程新宙</t>
         </is>
       </c>
+      <c r="R15" t="n">
+        <v>14</v>
+      </c>
       <c r="S15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
-      </c>
-      <c r="U15" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
           <t>56710691</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>1.493863495230555</v>
+      </c>
       <c r="C16" t="n">
-        <v>1.493863495230555</v>
+        <v>1.587447533833871</v>
       </c>
       <c r="D16" t="n">
-        <v>1.587447533833871</v>
+        <v>1.679300536467776</v>
       </c>
       <c r="E16" t="n">
-        <v>1.679300536467776</v>
+        <v>1.995386058696283</v>
       </c>
       <c r="F16" t="n">
-        <v>1.995386058696283</v>
+        <v>1.931250348794389</v>
       </c>
       <c r="G16" t="n">
-        <v>1.931250348794389</v>
+        <v>1.594879785287934</v>
       </c>
       <c r="H16" t="n">
-        <v>1.594879785287934</v>
+        <v>1.098555319362279</v>
       </c>
       <c r="I16" t="n">
-        <v>1.098555319362279</v>
+        <v>1.209005558406033</v>
       </c>
       <c r="J16" t="n">
-        <v>1.209005558406033</v>
+        <v>0.1854370412372204</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.3160855222285079</v>
+        <v>-0.4079385248624126</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.09358403860331577</v>
+        <v>-0.83269502943211</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.1104502390437541</v>
+        <v>0.3858742268819013</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3363705635064547</v>
+        <v>-1.218569256314011</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.218569256314011</v>
+        <v>0.5933755660996329</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5933755660996329</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-0.6693222861754009</v>
-      </c>
-      <c r="R16" t="inlineStr">
+        <v>-0.6251936902143784</v>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>王晨祎</t>
         </is>
       </c>
+      <c r="R16" t="n">
+        <v>13</v>
+      </c>
       <c r="S16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T16" t="n">
-        <v>12</v>
-      </c>
-      <c r="U16" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
           <t>56783666</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>1.12408857125175</v>
+      </c>
       <c r="C17" t="n">
-        <v>1.12408857125175</v>
+        <v>1.942392871608773</v>
       </c>
       <c r="D17" t="n">
-        <v>1.942392871608773</v>
+        <v>0.8752679151774186</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8752679151774186</v>
+        <v>1.742895569087108</v>
       </c>
       <c r="F17" t="n">
-        <v>1.742895569087108</v>
+        <v>1.871047939849749</v>
       </c>
       <c r="G17" t="n">
-        <v>1.871047939849749</v>
+        <v>1.506990966616855</v>
       </c>
       <c r="H17" t="n">
-        <v>1.506990966616855</v>
+        <v>1.684444837682627</v>
       </c>
       <c r="I17" t="n">
-        <v>1.684444837682627</v>
+        <v>1.539299098816608</v>
       </c>
       <c r="J17" t="n">
-        <v>1.539299098816608</v>
+        <v>-0.248820656074331</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.8676276539096889</v>
+        <v>0.1994973025216658</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.8183043003570236</v>
+        <v>-0.1866031021671219</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1451457388660187</v>
+        <v>-0.03230813219975337</v>
       </c>
       <c r="N17" t="n">
-        <v>0.364056973232894</v>
+        <v>-0.1542949699673688</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1542949699673688</v>
+        <v>-0.4483179585959967</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.4483179585959967</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>-0.2682345879195406</v>
-      </c>
-      <c r="R17" t="inlineStr">
+        <v>-0.6026129285633653</v>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>于金龙</t>
         </is>
       </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T17" t="n">
-        <v>8</v>
-      </c>
-      <c r="U17" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
           <t>56787409</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>1.701761566775636</v>
+      </c>
       <c r="C18" t="n">
-        <v>1.701761566775636</v>
+        <v>1.012040085718648</v>
       </c>
       <c r="D18" t="n">
-        <v>1.012040085718648</v>
+        <v>1.851280101985734</v>
       </c>
       <c r="E18" t="n">
-        <v>1.851280101985734</v>
+        <v>0.5867757409354519</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5867757409354519</v>
+        <v>1.355855062945119</v>
       </c>
       <c r="G18" t="n">
-        <v>1.355855062945119</v>
+        <v>1.201132276389896</v>
       </c>
       <c r="H18" t="n">
-        <v>1.201132276389896</v>
+        <v>1.757117715991465</v>
       </c>
       <c r="I18" t="n">
-        <v>1.757117715991465</v>
+        <v>1.643314251540009</v>
       </c>
       <c r="J18" t="n">
-        <v>1.643314251540009</v>
+        <v>0.1495185352100983</v>
       </c>
       <c r="K18" t="n">
-        <v>1.264504361050282</v>
+        <v>0.4252643447831965</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6897214810569876</v>
+        <v>0.4012626530463466</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1138034644514563</v>
+        <v>-0.4421819751501126</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1547227865552223</v>
+        <v>0.8434446281964592</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8434446281964592</v>
+        <v>-0.275745809573098</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.275745809573098</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.5338635578895288</v>
-      </c>
-      <c r="R18" t="inlineStr">
+        <v>0.5676988186233609</v>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>左家伟</t>
         </is>
       </c>
+      <c r="R18" t="n">
+        <v>12</v>
+      </c>
       <c r="S18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T18" t="n">
-        <v>11</v>
-      </c>
-      <c r="U18" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
           <t>56789859</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>1.890203215946186</v>
+      </c>
       <c r="C19" t="n">
-        <v>1.890203215946186</v>
+        <v>1.658665949795772</v>
       </c>
       <c r="D19" t="n">
-        <v>1.658665949795772</v>
+        <v>1.717062363498818</v>
       </c>
       <c r="E19" t="n">
-        <v>1.717062363498818</v>
+        <v>1.861180669871105</v>
       </c>
       <c r="F19" t="n">
-        <v>1.861180669871105</v>
+        <v>1.920155251586756</v>
       </c>
       <c r="G19" t="n">
-        <v>1.920155251586756</v>
+        <v>1.222495138913254</v>
       </c>
       <c r="H19" t="n">
-        <v>1.222495138913254</v>
+        <v>1.259489481566652</v>
       </c>
       <c r="I19" t="n">
-        <v>1.259489481566652</v>
+        <v>1.692207587736559</v>
       </c>
       <c r="J19" t="n">
-        <v>1.692207587736559</v>
+        <v>-0.1731408524473688</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.1441183063722877</v>
+        <v>-0.202514720075333</v>
       </c>
       <c r="L19" t="n">
-        <v>0.231537266150414</v>
+        <v>-0.6606657700201042</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.4327181061699072</v>
+        <v>-0.4697124488233055</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6976601126735025</v>
+        <v>-0.1909533211967989</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.1909533211967989</v>
+        <v>0.02937386762796423</v>
       </c>
       <c r="P19" t="n">
-        <v>0.02937386762796423</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>-1.506033791366111</v>
-      </c>
-      <c r="R19" t="inlineStr">
+        <v>-0.1615794535688344</v>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>王皓璋</t>
         </is>
       </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
-      </c>
-      <c r="U19" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
           <t>55758322</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>1.326826228294971</v>
+      </c>
       <c r="C20" t="n">
-        <v>1.326826228294971</v>
+        <v>1.280634029040096</v>
       </c>
       <c r="D20" t="n">
-        <v>1.280634029040096</v>
+        <v>1.668885132897016</v>
       </c>
       <c r="E20" t="n">
-        <v>1.668885132897016</v>
+        <v>1.378504198865765</v>
       </c>
       <c r="F20" t="n">
-        <v>1.378504198865765</v>
+        <v>1.423085933534363</v>
       </c>
       <c r="G20" t="n">
-        <v>1.423085933534363</v>
+        <v>1.743420227896465</v>
       </c>
       <c r="H20" t="n">
-        <v>1.743420227896465</v>
+        <v>1.404540038457641</v>
       </c>
       <c r="I20" t="n">
-        <v>1.404540038457641</v>
+        <v>1.12566991611791</v>
       </c>
       <c r="J20" t="n">
-        <v>1.12566991611791</v>
+        <v>0.3420589046020446</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2903809340312506</v>
+        <v>-0.09787016982566854</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04619219925487461</v>
+        <v>-0.01854589507672189</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2788701223397319</v>
+        <v>0.6177503117785552</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.3203342943621015</v>
+        <v>-0.6362962068552767</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.6362962068552767</v>
+        <v>0.4399290744277131</v>
       </c>
       <c r="P20" t="n">
-        <v>0.4399290744277131</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.8433931514782094</v>
-      </c>
-      <c r="R20" t="inlineStr">
+        <v>-0.196367132427564</v>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>刘昊殷</t>
         </is>
       </c>
+      <c r="R20" t="n">
+        <v>9</v>
+      </c>
       <c r="S20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
-      </c>
-      <c r="U20" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
           <t>55760307</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>1.869479996288262</v>
+      </c>
       <c r="C21" t="n">
-        <v>1.869479996288262</v>
+        <v>1.579324015499751</v>
       </c>
       <c r="D21" t="n">
-        <v>1.579324015499751</v>
+        <v>1.585419640772367</v>
       </c>
       <c r="E21" t="n">
-        <v>1.585419640772367</v>
+        <v>1.346972563903264</v>
       </c>
       <c r="F21" t="n">
-        <v>1.346972563903264</v>
+        <v>1.723918779184773</v>
       </c>
       <c r="G21" t="n">
-        <v>1.723918779184773</v>
+        <v>1.13672857443318</v>
       </c>
       <c r="H21" t="n">
-        <v>1.13672857443318</v>
+        <v>1.721549058301832</v>
       </c>
       <c r="I21" t="n">
-        <v>1.721549058301832</v>
+        <v>0.9325242815668976</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9325242815668976</v>
+        <v>-0.2840603555158956</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2384470768691025</v>
+        <v>0.2323514515964864</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2901559807885117</v>
+        <v>-0.002369720882940518</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7890247767349347</v>
+        <v>0.2042042928662827</v>
       </c>
       <c r="N21" t="n">
-        <v>0.5871902047515924</v>
+        <v>-0.2065740137492229</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.2065740137492229</v>
+        <v>-0.516411807112382</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.516411807112382</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.150125668063933</v>
-      </c>
-      <c r="R21" t="inlineStr">
+        <v>-0.7229858208616052</v>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>舒琪</t>
         </is>
       </c>
+      <c r="R21" t="n">
+        <v>6</v>
+      </c>
       <c r="S21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
-      </c>
-      <c r="U21" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
           <t>55763117</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>1.08515420347302</v>
+      </c>
       <c r="C22" t="n">
-        <v>1.08515420347302</v>
+        <v>0.9447935689116078</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9447935689116078</v>
+        <v>1.799377431092932</v>
       </c>
       <c r="E22" t="n">
-        <v>1.799377431092932</v>
+        <v>0.6161238215833188</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6161238215833188</v>
+        <v>1.203767717723933</v>
       </c>
       <c r="G22" t="n">
-        <v>1.203767717723933</v>
+        <v>1.750131975936279</v>
       </c>
       <c r="H22" t="n">
-        <v>1.750131975936279</v>
+        <v>1.833273063857703</v>
       </c>
       <c r="I22" t="n">
-        <v>1.833273063857703</v>
+        <v>1.505219631944194</v>
       </c>
       <c r="J22" t="n">
-        <v>1.505219631944194</v>
+        <v>0.7142232276199114</v>
       </c>
       <c r="K22" t="n">
-        <v>1.183253609509613</v>
+        <v>0.328669747328289</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1403606345614126</v>
+        <v>0.6295053461337707</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3280534319135093</v>
+        <v>0.2449123439920846</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.546364258212346</v>
+        <v>0.3845930021416857</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3845930021416857</v>
+        <v>0.3855534802916223</v>
       </c>
       <c r="P22" t="n">
-        <v>0.3855534802916223</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.917310665074056</v>
-      </c>
-      <c r="R22" t="inlineStr">
+        <v>0.7701464824333086</v>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>蔡安新</t>
         </is>
       </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
           <t>55766121</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>1.402619982165632</v>
+      </c>
       <c r="C23" t="n">
-        <v>1.402619982165632</v>
+        <v>1.530444181488812</v>
       </c>
       <c r="D23" t="n">
-        <v>1.530444181488812</v>
+        <v>1.518251209677051</v>
       </c>
       <c r="E23" t="n">
-        <v>1.518251209677051</v>
+        <v>1.477392690692319</v>
       </c>
       <c r="F23" t="n">
-        <v>1.477392690692319</v>
+        <v>1.208569240917825</v>
       </c>
       <c r="G23" t="n">
-        <v>1.208569240917825</v>
+        <v>1.804431416760103</v>
       </c>
       <c r="H23" t="n">
-        <v>1.804431416760103</v>
+        <v>1.018709400480802</v>
       </c>
       <c r="I23" t="n">
-        <v>1.018709400480802</v>
+        <v>1.567833083656459</v>
       </c>
       <c r="J23" t="n">
-        <v>1.567833083656459</v>
+        <v>0.1156312275114189</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04085851898473192</v>
+        <v>0.05305149079649296</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.1278241993231799</v>
+        <v>-0.1898598404370224</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.5491236831756565</v>
+        <v>0.2365983331036439</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.595862175842278</v>
+        <v>-0.4264581735406661</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.4264581735406661</v>
+        <v>0.06257973671492589</v>
       </c>
       <c r="P23" t="n">
-        <v>0.06257973671492589</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.2154212109745333</v>
-      </c>
-      <c r="R23" t="inlineStr">
+        <v>-0.3638784368257404</v>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>王子菲</t>
         </is>
       </c>
+      <c r="R23" t="n">
+        <v>10</v>
+      </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
-      </c>
-      <c r="U23" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
           <t>55768880</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>1.242476493599432</v>
+      </c>
       <c r="C24" t="n">
-        <v>1.242476493599432</v>
+        <v>1.966203154042707</v>
       </c>
       <c r="D24" t="n">
-        <v>1.966203154042707</v>
+        <v>1.502165138486488</v>
       </c>
       <c r="E24" t="n">
-        <v>1.502165138486488</v>
+        <v>1.641698472516616</v>
       </c>
       <c r="F24" t="n">
-        <v>1.641698472516616</v>
+        <v>1.176616817067335</v>
       </c>
       <c r="G24" t="n">
-        <v>1.176616817067335</v>
+        <v>0.7541425566764501</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7541425566764501</v>
+        <v>1.513333741463363</v>
       </c>
       <c r="I24" t="n">
-        <v>1.513333741463363</v>
+        <v>1.092325431117164</v>
       </c>
       <c r="J24" t="n">
-        <v>1.092325431117164</v>
+        <v>0.2596886448870563</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.1395333340301281</v>
+        <v>0.3245046815260906</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.723726660443275</v>
+        <v>0.3367169243960286</v>
       </c>
       <c r="M24" t="n">
-        <v>0.421008310346199</v>
+        <v>-0.338182874440714</v>
       </c>
       <c r="N24" t="n">
-        <v>0.4224742603908844</v>
+        <v>0.6748997988367427</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6748997988367427</v>
+        <v>-0.06481603663903446</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.06481603663903446</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.5827273763684615</v>
-      </c>
-      <c r="R24" t="inlineStr">
+        <v>0.6100837621977084</v>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>刘洋</t>
         </is>
       </c>
+      <c r="R24" t="n">
+        <v>6</v>
+      </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
-      </c>
-      <c r="U24" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
           <t>55774247</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>1.451587317752319</v>
+      </c>
       <c r="C25" t="n">
-        <v>1.451587317752319</v>
+        <v>1.827234486911673</v>
       </c>
       <c r="D25" t="n">
-        <v>1.827234486911673</v>
+        <v>1.047008826127273</v>
       </c>
       <c r="E25" t="n">
-        <v>1.047008826127273</v>
+        <v>1.600000867246607</v>
       </c>
       <c r="F25" t="n">
-        <v>1.600000867246607</v>
+        <v>1.889001781686529</v>
       </c>
       <c r="G25" t="n">
-        <v>1.889001781686529</v>
+        <v>1.873585682589369</v>
       </c>
       <c r="H25" t="n">
-        <v>1.873585682589369</v>
+        <v>1.622234826882776</v>
       </c>
       <c r="I25" t="n">
-        <v>1.622234826882776</v>
+        <v>1.760217312991581</v>
       </c>
       <c r="J25" t="n">
-        <v>1.760217312991581</v>
+        <v>-0.4045784916250459</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.5529920411193343</v>
+        <v>0.2272336196650657</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.3756471691593541</v>
+        <v>-0.2667669548037528</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.1379824861088053</v>
+        <v>0.1133683695977881</v>
       </c>
       <c r="N25" t="n">
-        <v>0.01541609909715946</v>
+        <v>-0.3801353244015409</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.3801353244015409</v>
+        <v>-0.6318121112901114</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.6318121112901114</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>-0.3307434571659449</v>
-      </c>
-      <c r="R25" t="inlineStr">
+        <v>-1.011947435691652</v>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>管笑啸</t>
         </is>
       </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>4</v>
-      </c>
-      <c r="U25" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
           <t>55776021</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>1.417747449370597</v>
+      </c>
       <c r="C26" t="n">
-        <v>1.417747449370597</v>
+        <v>1.59899945952149</v>
       </c>
       <c r="D26" t="n">
-        <v>1.59899945952149</v>
+        <v>1.75199674380496</v>
       </c>
       <c r="E26" t="n">
-        <v>1.75199674380496</v>
+        <v>0.6220525869368985</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6220525869368985</v>
+        <v>1.982979221985057</v>
       </c>
       <c r="G26" t="n">
-        <v>1.982979221985057</v>
+        <v>1.007416634966167</v>
       </c>
       <c r="H26" t="n">
-        <v>1.007416634966167</v>
+        <v>1.811284754311096</v>
       </c>
       <c r="I26" t="n">
-        <v>1.811284754311096</v>
+        <v>1.495510760510954</v>
       </c>
       <c r="J26" t="n">
-        <v>1.495510760510954</v>
+        <v>0.3342492944343627</v>
       </c>
       <c r="K26" t="n">
-        <v>1.129944156868061</v>
+        <v>0.9769468725845911</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.1812520101508928</v>
+        <v>-0.1716944676739611</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3157739938001423</v>
+        <v>-0.488094125544787</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9755625870188904</v>
+        <v>0.3163996578708259</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3163996578708259</v>
+        <v>-0.6426975781502282</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.6426975781502282</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.6514075738002056</v>
-      </c>
-      <c r="R26" t="inlineStr">
+        <v>-0.3262979202794025</v>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>贾凡</t>
         </is>
+      </c>
+      <c r="R26" t="n">
+        <v>8</v>
       </c>
       <c r="S26" t="n">
         <v>8</v>
       </c>
       <c r="T26" t="n">
-        <v>8</v>
-      </c>
-      <c r="U26" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
           <t>55777851</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>1.85568528672229</v>
+      </c>
       <c r="C27" t="n">
-        <v>1.85568528672229</v>
+        <v>1.865406618345913</v>
       </c>
       <c r="D27" t="n">
-        <v>1.865406618345913</v>
+        <v>1.500070484840324</v>
       </c>
       <c r="E27" t="n">
-        <v>1.500070484840324</v>
+        <v>1.604624852701483</v>
       </c>
       <c r="F27" t="n">
-        <v>1.604624852701483</v>
+        <v>1.061372291657969</v>
       </c>
       <c r="G27" t="n">
-        <v>1.061372291657969</v>
+        <v>1.135225296543646</v>
       </c>
       <c r="H27" t="n">
-        <v>1.135225296543646</v>
+        <v>1.966333566238088</v>
       </c>
       <c r="I27" t="n">
-        <v>1.966333566238088</v>
+        <v>1.881483984788706</v>
       </c>
       <c r="J27" t="n">
-        <v>1.881483984788706</v>
+        <v>-0.355614801881966</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.1045543678611591</v>
+        <v>0.2607817656444298</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.009721331623622875</v>
+        <v>0.9049612745801192</v>
       </c>
       <c r="M27" t="n">
-        <v>0.08484958144938193</v>
+        <v>-0.7462586882450608</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.07385300488567648</v>
+        <v>1.65121996282518</v>
       </c>
       <c r="O27" t="n">
-        <v>1.65121996282518</v>
+        <v>-0.616396567526396</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.616396567526396</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.06386955009752215</v>
-      </c>
-      <c r="R27" t="inlineStr">
+        <v>1.034823395298784</v>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>肖舜睿</t>
         </is>
       </c>
+      <c r="R27" t="n">
+        <v>7</v>
+      </c>
       <c r="S27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
-      </c>
-      <c r="U27" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
           <t>55779767</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>1.429542123233289</v>
+      </c>
       <c r="C28" t="n">
-        <v>1.429542123233289</v>
+        <v>1.573248106463849</v>
       </c>
       <c r="D28" t="n">
-        <v>1.573248106463849</v>
+        <v>1.995836088514998</v>
       </c>
       <c r="E28" t="n">
-        <v>1.995836088514998</v>
+        <v>1.321130661705122</v>
       </c>
       <c r="F28" t="n">
-        <v>1.321130661705122</v>
+        <v>1.991699097771352</v>
       </c>
       <c r="G28" t="n">
-        <v>1.991699097771352</v>
+        <v>1.513351587536807</v>
       </c>
       <c r="H28" t="n">
-        <v>1.513351587536807</v>
+        <v>1.072280488734227</v>
       </c>
       <c r="I28" t="n">
-        <v>1.072280488734227</v>
+        <v>1.344241298479608</v>
       </c>
       <c r="J28" t="n">
-        <v>1.344241298479608</v>
+        <v>0.5662939652817094</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6747054268098764</v>
+        <v>0.2521174447587273</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.1437059832305603</v>
+        <v>-0.919418609037125</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.2719608097453812</v>
+        <v>0.1691102890571987</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4783475102345451</v>
+        <v>-1.088528898094324</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.088528898094324</v>
+        <v>0.3141765205229823</v>
       </c>
       <c r="P28" t="n">
-        <v>0.3141765205229823</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.06810309006051041</v>
-      </c>
-      <c r="R28" t="inlineStr">
+        <v>-0.7743523775713417</v>
+      </c>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>林雨仙</t>
         </is>
       </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
-      </c>
-      <c r="U28" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
           <t>55781652</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>1.90160865795325</v>
+      </c>
       <c r="C29" t="n">
-        <v>1.90160865795325</v>
+        <v>0.8345121784730738</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8345121784730738</v>
+        <v>1.840478044095025</v>
       </c>
       <c r="E29" t="n">
-        <v>1.840478044095025</v>
+        <v>1.273920951446942</v>
       </c>
       <c r="F29" t="n">
-        <v>1.273920951446942</v>
+        <v>1.231748617053928</v>
       </c>
       <c r="G29" t="n">
-        <v>1.231748617053928</v>
+        <v>1.267739539211489</v>
       </c>
       <c r="H29" t="n">
-        <v>1.267739539211489</v>
+        <v>1.785114735797439</v>
       </c>
       <c r="I29" t="n">
-        <v>1.785114735797439</v>
+        <v>1.472521442550104</v>
       </c>
       <c r="J29" t="n">
-        <v>1.472521442550104</v>
+        <v>-0.06113061385822505</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5665570926480834</v>
+        <v>-0.4394087729738678</v>
       </c>
       <c r="L29" t="n">
-        <v>1.067096479480176</v>
+        <v>0.553366118743511</v>
       </c>
       <c r="M29" t="n">
-        <v>0.3125932932473343</v>
+        <v>-0.2047819033386153</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.03599092215756139</v>
+        <v>0.7581480220821262</v>
       </c>
       <c r="O29" t="n">
-        <v>0.7581480220821262</v>
+        <v>0.3782781591156428</v>
       </c>
       <c r="P29" t="n">
-        <v>0.3782781591156428</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>-0.1519551714271972</v>
-      </c>
-      <c r="R29" t="inlineStr">
+        <v>1.136426181197769</v>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>符慧跃</t>
         </is>
       </c>
+      <c r="R29" t="n">
+        <v>15</v>
+      </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T29" t="n">
-        <v>12</v>
-      </c>
-      <c r="U29" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
           <t>55850187</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>1.836165954358556</v>
+      </c>
       <c r="C30" t="n">
-        <v>1.836165954358556</v>
+        <v>1.067543043795578</v>
       </c>
       <c r="D30" t="n">
-        <v>1.067543043795578</v>
+        <v>1.852088480534873</v>
       </c>
       <c r="E30" t="n">
-        <v>1.852088480534873</v>
+        <v>0.8818939834539152</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8818939834539152</v>
+        <v>1.51644476213136</v>
       </c>
       <c r="G30" t="n">
-        <v>1.51644476213136</v>
+        <v>1.243988365905415</v>
       </c>
       <c r="H30" t="n">
-        <v>1.243988365905415</v>
+        <v>1.850284265226914</v>
       </c>
       <c r="I30" t="n">
-        <v>1.850284265226914</v>
+        <v>1.479882858497999</v>
       </c>
       <c r="J30" t="n">
-        <v>1.479882858497999</v>
+        <v>0.01592252617631629</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9701944970809575</v>
+        <v>0.185649060341663</v>
       </c>
       <c r="L30" t="n">
-        <v>0.7686229105629783</v>
+        <v>0.3338395030955532</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3704014067289145</v>
+        <v>-0.2358944925925843</v>
       </c>
       <c r="N30" t="n">
-        <v>0.2724563962259456</v>
+        <v>0.5697339956881375</v>
       </c>
       <c r="O30" t="n">
-        <v>0.5697339956881375</v>
+        <v>-0.1697265341653464</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.1697265341653464</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.2995165970209481</v>
-      </c>
-      <c r="R30" t="inlineStr">
+        <v>0.4000074615227909</v>
+      </c>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>徐正圆</t>
         </is>
       </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
-      </c>
-      <c r="U30" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
           <t>55852656</t>
         </is>
       </c>
+      <c r="B31" t="n">
+        <v>1.547331696558575</v>
+      </c>
       <c r="C31" t="n">
-        <v>1.547331696558575</v>
+        <v>1.641454761760598</v>
       </c>
       <c r="D31" t="n">
-        <v>1.641454761760598</v>
+        <v>1.663414335041818</v>
       </c>
       <c r="E31" t="n">
-        <v>1.663414335041818</v>
+        <v>1.937953274954848</v>
       </c>
       <c r="F31" t="n">
-        <v>1.937953274954848</v>
+        <v>1.918985839567452</v>
       </c>
       <c r="G31" t="n">
-        <v>1.918985839567452</v>
+        <v>1.936064714330672</v>
       </c>
       <c r="H31" t="n">
-        <v>1.936064714330672</v>
+        <v>1.704752477213332</v>
       </c>
       <c r="I31" t="n">
-        <v>1.704752477213332</v>
+        <v>1.503893350580167</v>
       </c>
       <c r="J31" t="n">
-        <v>1.503893350580167</v>
+        <v>0.1160826384832425</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.2745389399130305</v>
+        <v>-0.2964985131942497</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.09412306520202329</v>
+        <v>-0.2142333623541191</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2008591266331652</v>
+        <v>0.4321713637505047</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.01707887476322045</v>
+        <v>-0.6464047261046235</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.6464047261046235</v>
+        <v>0.4125811516774922</v>
       </c>
       <c r="P31" t="n">
-        <v>0.4125811516774922</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.03752212668537847</v>
-      </c>
-      <c r="R31" t="inlineStr">
+        <v>-0.2338235744271315</v>
+      </c>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>陈圣泽</t>
         </is>
       </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" t="n">
-        <v>5</v>
-      </c>
-      <c r="U31" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
           <t>55854618</t>
         </is>
       </c>
+      <c r="B32" t="n">
+        <v>1.144519413458736</v>
+      </c>
       <c r="C32" t="n">
-        <v>1.144519413458736</v>
+        <v>1.035177791984252</v>
       </c>
       <c r="D32" t="n">
-        <v>1.035177791984252</v>
+        <v>1.325244071062398</v>
       </c>
       <c r="E32" t="n">
-        <v>1.325244071062398</v>
+        <v>1.640108026879022</v>
       </c>
       <c r="F32" t="n">
-        <v>1.640108026879022</v>
+        <v>1.887462371815234</v>
       </c>
       <c r="G32" t="n">
-        <v>1.887462371815234</v>
+        <v>1.37679591624959</v>
       </c>
       <c r="H32" t="n">
-        <v>1.37679591624959</v>
+        <v>1.519439156810814</v>
       </c>
       <c r="I32" t="n">
-        <v>1.519439156810814</v>
+        <v>1.60332534950739</v>
       </c>
       <c r="J32" t="n">
-        <v>1.60332534950739</v>
+        <v>0.1807246576036625</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.314863955816624</v>
+        <v>-0.6049302348947696</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1093416214744831</v>
+        <v>-0.3680232150044198</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.08388619269657593</v>
+        <v>-0.2265294332578005</v>
       </c>
       <c r="N32" t="n">
-        <v>0.5106664555656444</v>
+        <v>-0.1414937817466191</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.1414937817466191</v>
+        <v>0.7856548924984321</v>
       </c>
       <c r="P32" t="n">
-        <v>0.7856548924984321</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>-1.018758225553327</v>
-      </c>
-      <c r="R32" t="inlineStr">
+        <v>0.6441611107518128</v>
+      </c>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>黄泽铭</t>
         </is>
       </c>
+      <c r="R32" t="n">
+        <v>12</v>
+      </c>
       <c r="S32" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T32" t="n">
-        <v>9</v>
-      </c>
-      <c r="U32" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
           <t>55860282</t>
         </is>
       </c>
+      <c r="B33" t="n">
+        <v>1.788654443318367</v>
+      </c>
       <c r="C33" t="n">
-        <v>1.788654443318367</v>
+        <v>1.140044064825958</v>
       </c>
       <c r="D33" t="n">
-        <v>1.140044064825958</v>
+        <v>0.7784623762410529</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7784623762410529</v>
+        <v>1.970516472075076</v>
       </c>
       <c r="F33" t="n">
-        <v>1.970516472075076</v>
+        <v>1.07643288108188</v>
       </c>
       <c r="G33" t="n">
-        <v>1.07643288108188</v>
+        <v>1.350361438316734</v>
       </c>
       <c r="H33" t="n">
-        <v>1.350361438316734</v>
+        <v>1.233579269053055</v>
       </c>
       <c r="I33" t="n">
-        <v>1.233579269053055</v>
+        <v>1.297848310536271</v>
       </c>
       <c r="J33" t="n">
-        <v>1.297848310536271</v>
+        <v>-1.010192067077314</v>
       </c>
       <c r="K33" t="n">
-        <v>-1.192054095834023</v>
+        <v>-0.8304724072491179</v>
       </c>
       <c r="L33" t="n">
-        <v>0.6486103784924089</v>
+        <v>0.1571463879711752</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.06426904148321544</v>
+        <v>0.05251312778046335</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.273928557234854</v>
+        <v>0.1046332601907118</v>
       </c>
       <c r="O33" t="n">
-        <v>0.1046332601907118</v>
+        <v>-0.1797196598281965</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.1797196598281965</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>-1.631004958574793</v>
-      </c>
-      <c r="R33" t="inlineStr">
+        <v>-0.07508639963748465</v>
+      </c>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>石玥</t>
         </is>
       </c>
+      <c r="R33" t="n">
+        <v>12</v>
+      </c>
       <c r="S33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T33" t="n">
-        <v>11</v>
-      </c>
-      <c r="U33" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
           <t>55862633</t>
         </is>
       </c>
+      <c r="B34" t="n">
+        <v>1.839729683275158</v>
+      </c>
       <c r="C34" t="n">
-        <v>1.839729683275158</v>
+        <v>1.70444595085792</v>
       </c>
       <c r="D34" t="n">
-        <v>1.70444595085792</v>
+        <v>1.15978639744333</v>
       </c>
       <c r="E34" t="n">
-        <v>1.15978639744333</v>
+        <v>1.849185876773176</v>
       </c>
       <c r="F34" t="n">
-        <v>1.849185876773176</v>
+        <v>1.161448226644244</v>
       </c>
       <c r="G34" t="n">
-        <v>1.161448226644244</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1.92228081071838</v>
       </c>
       <c r="I34" t="n">
-        <v>1.92228081071838</v>
+        <v>1.502614776856311</v>
       </c>
       <c r="J34" t="n">
-        <v>1.502614776856311</v>
+        <v>-0.6799432858318282</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.6893994793298457</v>
+        <v>-0.1447399259152558</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1352837324172382</v>
+        <v>0.7608325840741352</v>
       </c>
       <c r="M34" t="n">
-        <v>0.4196660338620688</v>
+        <v>0.4973852231436893</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.8385517733557557</v>
+        <v>0.2634473609304462</v>
       </c>
       <c r="O34" t="n">
-        <v>0.2634473609304462</v>
+        <v>-0.5352033599165722</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.5352033599165722</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.4335345954707406</v>
-      </c>
-      <c r="R34" t="inlineStr">
+        <v>-0.2717559989861265</v>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>张楚晨</t>
         </is>
       </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
           <t>55864604</t>
         </is>
       </c>
+      <c r="B35" t="n">
+        <v>1.628756314509435</v>
+      </c>
       <c r="C35" t="n">
-        <v>1.628756314509435</v>
+        <v>1.41512137980496</v>
       </c>
       <c r="D35" t="n">
-        <v>1.41512137980496</v>
+        <v>1.295981951765858</v>
       </c>
       <c r="E35" t="n">
-        <v>1.295981951765858</v>
+        <v>1.441555291588436</v>
       </c>
       <c r="F35" t="n">
-        <v>1.441555291588436</v>
+        <v>1.13862108151234</v>
       </c>
       <c r="G35" t="n">
-        <v>1.13862108151234</v>
+        <v>1.180491660731482</v>
       </c>
       <c r="H35" t="n">
-        <v>1.180491660731482</v>
+        <v>1.542912283490633</v>
       </c>
       <c r="I35" t="n">
-        <v>1.542912283490633</v>
+        <v>1.474219900295134</v>
       </c>
       <c r="J35" t="n">
-        <v>1.474219900295134</v>
+        <v>-0.3327743627435764</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.1455733398225774</v>
+        <v>-0.02643391178347576</v>
       </c>
       <c r="L35" t="n">
-        <v>0.2136349347044748</v>
+        <v>0.4042912019782927</v>
       </c>
       <c r="M35" t="n">
-        <v>0.06869238319549864</v>
+        <v>-0.2937282395636525</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.04187057921914161</v>
+        <v>0.6980194415419456</v>
       </c>
       <c r="O35" t="n">
-        <v>0.6980194415419456</v>
+        <v>-0.3063404509601009</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.3063404509601009</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>-0.2486453121124119</v>
-      </c>
-      <c r="R35" t="inlineStr">
+        <v>0.3916789905818445</v>
+      </c>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>冯雨晨</t>
         </is>
       </c>
+      <c r="R35" t="n">
+        <v>7</v>
+      </c>
       <c r="S35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T35" t="n">
-        <v>6</v>
-      </c>
-      <c r="U35" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
           <t>55866572</t>
         </is>
       </c>
+      <c r="B36" t="n">
+        <v>1.280656634404816</v>
+      </c>
       <c r="C36" t="n">
-        <v>1.280656634404816</v>
+        <v>1.060279124181217</v>
       </c>
       <c r="D36" t="n">
-        <v>1.060279124181217</v>
+        <v>0.6054053286779024</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6054053286779024</v>
+        <v>1.738631364659079</v>
       </c>
       <c r="F36" t="n">
-        <v>1.738631364659079</v>
+        <v>0.8660483161727978</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8660483161727978</v>
+        <v>1.70742161986198</v>
       </c>
       <c r="H36" t="n">
-        <v>1.70742161986198</v>
+        <v>0.9709361121370864</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9709361121370864</v>
+        <v>1.672130516115159</v>
       </c>
       <c r="J36" t="n">
-        <v>1.672130516115159</v>
+        <v>-0.6752513057269141</v>
       </c>
       <c r="K36" t="n">
-        <v>-1.133226035981176</v>
+        <v>-0.6783522404778621</v>
       </c>
       <c r="L36" t="n">
-        <v>0.2203775102235999</v>
+        <v>0.1048877959642887</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.7011944039780721</v>
+        <v>0.03529110374682198</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.8413733036891827</v>
+        <v>0.06959669221746667</v>
       </c>
       <c r="O36" t="n">
-        <v>0.06959669221746667</v>
+        <v>0.003100934750948081</v>
       </c>
       <c r="P36" t="n">
-        <v>0.003100934750948081</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>-1.213424646493666</v>
-      </c>
-      <c r="R36" t="inlineStr">
+        <v>0.07269762696841475</v>
+      </c>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>魏子航</t>
         </is>
       </c>
+      <c r="R36" t="n">
+        <v>8</v>
+      </c>
       <c r="S36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T36" t="n">
-        <v>9</v>
-      </c>
-      <c r="U36" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
           <t>55868471</t>
         </is>
       </c>
+      <c r="B37" t="n">
+        <v>1.909136453406054</v>
+      </c>
       <c r="C37" t="n">
-        <v>1.909136453406054</v>
+        <v>0.6416489058477716</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6416489058477716</v>
+        <v>0.8540415116830897</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8540415116830897</v>
+        <v>1.679251762884086</v>
       </c>
       <c r="F37" t="n">
-        <v>1.679251762884086</v>
+        <v>0.9761579573947397</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9761579573947397</v>
+        <v>1.057176797836162</v>
       </c>
       <c r="H37" t="n">
-        <v>1.057176797836162</v>
+        <v>1.36527734230524</v>
       </c>
       <c r="I37" t="n">
-        <v>1.36527734230524</v>
+        <v>1.739093631726584</v>
       </c>
       <c r="J37" t="n">
-        <v>1.739093631726584</v>
+        <v>-1.055094941722965</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.8252102512009962</v>
+        <v>-1.037602857036314</v>
       </c>
       <c r="L37" t="n">
-        <v>1.267487547558283</v>
+        <v>0.3891193849105006</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.3738162894213435</v>
+        <v>-0.6819168338904213</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.08101884044142271</v>
+        <v>1.071036218800922</v>
       </c>
       <c r="O37" t="n">
-        <v>1.071036218800922</v>
+        <v>-0.01749208468665042</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.01749208468665042</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>-2.3854952477392</v>
-      </c>
-      <c r="R37" t="inlineStr">
+        <v>1.053544134114272</v>
+      </c>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>瞿蓉蓉</t>
         </is>
       </c>
+      <c r="R37" t="n">
+        <v>9</v>
+      </c>
       <c r="S37" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T37" t="n">
-        <v>6</v>
-      </c>
-      <c r="U37" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
           <t>55916641</t>
         </is>
       </c>
+      <c r="B38" t="n">
+        <v>1.796622296823469</v>
+      </c>
       <c r="C38" t="n">
-        <v>1.796622296823469</v>
+        <v>1.169642952446964</v>
       </c>
       <c r="D38" t="n">
-        <v>1.169642952446964</v>
+        <v>1.513786016006132</v>
       </c>
       <c r="E38" t="n">
-        <v>1.513786016006132</v>
+        <v>1.831640589096289</v>
       </c>
       <c r="F38" t="n">
-        <v>1.831640589096289</v>
+        <v>1.94595314653093</v>
       </c>
       <c r="G38" t="n">
-        <v>1.94595314653093</v>
+        <v>1.575729472998519</v>
       </c>
       <c r="H38" t="n">
-        <v>1.575729472998519</v>
+        <v>1.218957827732994</v>
       </c>
       <c r="I38" t="n">
-        <v>1.218957827732994</v>
+        <v>1.488911756491108</v>
       </c>
       <c r="J38" t="n">
-        <v>1.488911756491108</v>
+        <v>-0.2828362808173368</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.3178545730901563</v>
+        <v>-0.6619976366493248</v>
       </c>
       <c r="L38" t="n">
-        <v>0.6269793443765053</v>
+        <v>-0.7269953187979366</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.2699539287581143</v>
+        <v>0.08681771650741044</v>
       </c>
       <c r="N38" t="n">
-        <v>0.3702236735324118</v>
+        <v>-0.8138130353053472</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.8138130353053472</v>
+        <v>0.3791613558319877</v>
       </c>
       <c r="P38" t="n">
-        <v>0.3791613558319877</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>-1.585011519757188</v>
-      </c>
-      <c r="R38" t="inlineStr">
+        <v>-0.434651679473359</v>
+      </c>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>伍凯鹏</t>
         </is>
+      </c>
+      <c r="R38" t="n">
+        <v>7</v>
       </c>
       <c r="S38" t="n">
         <v>7</v>
       </c>
       <c r="T38" t="n">
-        <v>7</v>
-      </c>
-      <c r="U38" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
           <t>55918750</t>
         </is>
       </c>
+      <c r="B39" t="n">
+        <v>1.698816890612903</v>
+      </c>
       <c r="C39" t="n">
-        <v>1.698816890612903</v>
+        <v>1.035639456772573</v>
       </c>
       <c r="D39" t="n">
-        <v>1.035639456772573</v>
+        <v>1.736188037705809</v>
       </c>
       <c r="E39" t="n">
-        <v>1.736188037705809</v>
+        <v>0.7304628179737688</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7304628179737688</v>
+        <v>1.288830877749242</v>
       </c>
       <c r="G39" t="n">
-        <v>1.288830877749242</v>
+        <v>1.871094050096135</v>
       </c>
       <c r="H39" t="n">
-        <v>1.871094050096135</v>
+        <v>0.8511618244997075</v>
       </c>
       <c r="I39" t="n">
-        <v>0.8511618244997075</v>
+        <v>1.803658796621311</v>
       </c>
       <c r="J39" t="n">
-        <v>1.803658796621311</v>
+        <v>0.03737114709290634</v>
       </c>
       <c r="K39" t="n">
-        <v>1.005725219732041</v>
+        <v>0.3051766387988041</v>
       </c>
       <c r="L39" t="n">
-        <v>0.66317743384033</v>
+        <v>-0.4376690532495349</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.9524969721216034</v>
+        <v>0.06743525347482393</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.5822631723468925</v>
+        <v>-0.5051043067243586</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.5051043067243586</v>
+        <v>-0.2678054917058978</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.2678054917058978</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>-0.0276860138830004</v>
-      </c>
-      <c r="R39" t="inlineStr">
+        <v>-0.7729097984302565</v>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>邹阳</t>
         </is>
       </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
-      </c>
-      <c r="U39" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
           <t>55928394</t>
         </is>
       </c>
+      <c r="B40" t="n">
+        <v>1.148273272553241</v>
+      </c>
       <c r="C40" t="n">
-        <v>1.148273272553241</v>
+        <v>0.6987708982741451</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6987708982741451</v>
+        <v>1.414479506152737</v>
       </c>
       <c r="E40" t="n">
-        <v>1.414479506152737</v>
+        <v>1.774360415022128</v>
       </c>
       <c r="F40" t="n">
-        <v>1.774360415022128</v>
+        <v>1.664393955684877</v>
       </c>
       <c r="G40" t="n">
-        <v>1.664393955684877</v>
+        <v>1.865217441435469</v>
       </c>
       <c r="H40" t="n">
-        <v>1.865217441435469</v>
+        <v>1.570050047524622</v>
       </c>
       <c r="I40" t="n">
-        <v>1.570050047524622</v>
+        <v>1.690484913543886</v>
       </c>
       <c r="J40" t="n">
-        <v>1.690484913543886</v>
+        <v>0.2662062335994957</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.3598809088693915</v>
+        <v>-1.075589516747983</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4495023742790961</v>
+        <v>-0.09434390816025529</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.120434866019264</v>
+        <v>0.1747325278915834</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.2008234857505922</v>
+        <v>-0.2690764360518383</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.2690764360518383</v>
+        <v>1.341795750347479</v>
       </c>
       <c r="P40" t="n">
-        <v>1.341795750347479</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>-0.7289946634171595</v>
-      </c>
-      <c r="R40" t="inlineStr">
+        <v>1.07271931429564</v>
+      </c>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>郑栋栋</t>
         </is>
       </c>
+      <c r="R40" t="n">
+        <v>8</v>
+      </c>
       <c r="S40" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
           <t>55931580</t>
         </is>
       </c>
+      <c r="B41" t="n">
+        <v>1.921599790430956</v>
+      </c>
       <c r="C41" t="n">
-        <v>1.921599790430956</v>
+        <v>0.8429949323898033</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8429949323898033</v>
+        <v>0.9597398991402316</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9597398991402316</v>
+        <v>1.942405988340417</v>
       </c>
       <c r="F41" t="n">
-        <v>1.942405988340417</v>
+        <v>0.9519059146055652</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9519059146055652</v>
+        <v>1.802549916916392</v>
       </c>
       <c r="H41" t="n">
-        <v>1.802549916916392</v>
+        <v>1.789433233898512</v>
       </c>
       <c r="I41" t="n">
-        <v>1.789433233898512</v>
+        <v>1.444826736323405</v>
       </c>
       <c r="J41" t="n">
-        <v>1.444826736323405</v>
+        <v>-0.9618598912907245</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.9826660892001852</v>
+        <v>-1.099411055950613</v>
       </c>
       <c r="L41" t="n">
-        <v>1.078604858041153</v>
+        <v>0.837527319292947</v>
       </c>
       <c r="M41" t="n">
-        <v>0.3446064975751071</v>
+        <v>0.3577231805929872</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.8506440023108272</v>
+        <v>0.4798041386999596</v>
       </c>
       <c r="O41" t="n">
-        <v>0.4798041386999596</v>
+        <v>0.137551164659889</v>
       </c>
       <c r="P41" t="n">
-        <v>0.137551164659889</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>-0.8660204473554035</v>
-      </c>
-      <c r="R41" t="inlineStr">
+        <v>0.6173553033598487</v>
+      </c>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>高越</t>
         </is>
       </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T41" t="n">
-        <v>8</v>
-      </c>
-      <c r="U41" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
           <t>55936390</t>
         </is>
       </c>
+      <c r="B42" t="n">
+        <v>1.510034460654541</v>
+      </c>
       <c r="C42" t="n">
-        <v>1.510034460654541</v>
+        <v>1.135583916205117</v>
       </c>
       <c r="D42" t="n">
-        <v>1.135583916205117</v>
+        <v>1.495775000807773</v>
       </c>
       <c r="E42" t="n">
-        <v>1.495775000807773</v>
+        <v>1.764981680560441</v>
       </c>
       <c r="F42" t="n">
-        <v>1.764981680560441</v>
+        <v>1.175522709178244</v>
       </c>
       <c r="G42" t="n">
-        <v>1.175522709178244</v>
+        <v>0.6945410561289538</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6945410561289538</v>
+        <v>0.753812403796851</v>
       </c>
       <c r="I42" t="n">
-        <v>0.753812403796851</v>
+        <v>1.844850850616327</v>
       </c>
       <c r="J42" t="n">
-        <v>1.844850850616327</v>
+        <v>-0.01425945984676846</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.2692066797526675</v>
+        <v>-0.6293977643553237</v>
       </c>
       <c r="L42" t="n">
-        <v>0.3744505444494246</v>
+        <v>-0.4217103053813931</v>
       </c>
       <c r="M42" t="n">
-        <v>-1.091038446819476</v>
+        <v>-1.150309794487373</v>
       </c>
       <c r="N42" t="n">
-        <v>0.4809816530492903</v>
+        <v>0.7285994891059799</v>
       </c>
       <c r="O42" t="n">
-        <v>0.7285994891059799</v>
+        <v>0.6151383045085552</v>
       </c>
       <c r="P42" t="n">
-        <v>0.6151383045085552</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>-2.215677324070858</v>
-      </c>
-      <c r="R42" t="inlineStr">
+        <v>1.343737793614535</v>
+      </c>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>刘家源</t>
         </is>
       </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T42" t="n">
-        <v>7</v>
-      </c>
-      <c r="U42" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
           <t>55938914</t>
         </is>
       </c>
+      <c r="B43" t="n">
+        <v>1.97782695083645</v>
+      </c>
       <c r="C43" t="n">
-        <v>1.97782695083645</v>
+        <v>1.239965512889285</v>
       </c>
       <c r="D43" t="n">
-        <v>1.239965512889285</v>
+        <v>1.412250884964309</v>
       </c>
       <c r="E43" t="n">
-        <v>1.412250884964309</v>
+        <v>0.900466858953762</v>
       </c>
       <c r="F43" t="n">
-        <v>0.900466858953762</v>
+        <v>1.646815691445112</v>
       </c>
       <c r="G43" t="n">
-        <v>1.646815691445112</v>
+        <v>1.273883317190048</v>
       </c>
       <c r="H43" t="n">
-        <v>1.273883317190048</v>
+        <v>1.836509573314527</v>
       </c>
       <c r="I43" t="n">
-        <v>1.836509573314527</v>
+        <v>1.547000376033767</v>
       </c>
       <c r="J43" t="n">
-        <v>1.547000376033767</v>
+        <v>-0.5655760658721409</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5117840260105474</v>
+        <v>0.3394986539355226</v>
       </c>
       <c r="L43" t="n">
-        <v>0.7378614379471657</v>
+        <v>0.1896938818694154</v>
       </c>
       <c r="M43" t="n">
-        <v>0.2895091972807602</v>
+        <v>-0.2731170588437186</v>
       </c>
       <c r="N43" t="n">
-        <v>0.3729323742550634</v>
+        <v>0.4628109407131338</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4628109407131338</v>
+        <v>-0.9050747198076636</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.9050747198076636</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>-0.3095005889109216</v>
-      </c>
-      <c r="R43" t="inlineStr">
+        <v>-0.4422637790945295</v>
+      </c>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>胡禄美</t>
         </is>
       </c>
+      <c r="R43" t="n">
+        <v>10</v>
+      </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T43" t="n">
-        <v>8</v>
-      </c>
-      <c r="U43" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
           <t>55949248</t>
         </is>
       </c>
+      <c r="B44" t="n">
+        <v>1.875451480289613</v>
+      </c>
       <c r="C44" t="n">
-        <v>1.875451480289613</v>
+        <v>0.6621430617841573</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6621430617841573</v>
+        <v>1.034584600289378</v>
       </c>
       <c r="E44" t="n">
-        <v>1.034584600289378</v>
+        <v>0.6171596492346072</v>
       </c>
       <c r="F44" t="n">
-        <v>0.6171596492346072</v>
+        <v>1.949085540178266</v>
       </c>
       <c r="G44" t="n">
-        <v>1.949085540178266</v>
+        <v>0.6990870369432105</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6990870369432105</v>
+        <v>1.624124737233618</v>
       </c>
       <c r="I44" t="n">
-        <v>1.624124737233618</v>
+        <v>1.549674388890325</v>
       </c>
       <c r="J44" t="n">
-        <v>1.549674388890325</v>
+        <v>-0.840866880000235</v>
       </c>
       <c r="K44" t="n">
-        <v>0.4174249510547707</v>
+        <v>0.04498341254955007</v>
       </c>
       <c r="L44" t="n">
-        <v>1.213308418505456</v>
+        <v>-0.3249608029446471</v>
       </c>
       <c r="M44" t="n">
-        <v>0.07445034834329389</v>
+        <v>-0.8505873519471141</v>
       </c>
       <c r="N44" t="n">
-        <v>1.249998503235055</v>
+        <v>0.525626549002467</v>
       </c>
       <c r="O44" t="n">
-        <v>0.525626549002467</v>
+        <v>-0.8858502925497851</v>
       </c>
       <c r="P44" t="n">
-        <v>-0.8858502925497851</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>-1.971431622342446</v>
-      </c>
-      <c r="R44" t="inlineStr">
+        <v>-0.3602237435473181</v>
+      </c>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>陈奕诺</t>
         </is>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
       </c>
       <c r="S44" t="n">
         <v>4</v>
       </c>
       <c r="T44" t="n">
-        <v>4</v>
-      </c>
-      <c r="U44" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
           <t>55951038</t>
         </is>
       </c>
+      <c r="B45" t="n">
+        <v>1.60206044224252</v>
+      </c>
       <c r="C45" t="n">
-        <v>1.60206044224252</v>
+        <v>1.368896585623882</v>
       </c>
       <c r="D45" t="n">
-        <v>1.368896585623882</v>
+        <v>0.6590553173057887</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6590553173057887</v>
+        <v>1.654473972649773</v>
       </c>
       <c r="F45" t="n">
-        <v>1.654473972649773</v>
+        <v>1.16995099504587</v>
       </c>
       <c r="G45" t="n">
-        <v>1.16995099504587</v>
+        <v>1.998857898747007</v>
       </c>
       <c r="H45" t="n">
-        <v>1.998857898747007</v>
+        <v>1.459846221532752</v>
       </c>
       <c r="I45" t="n">
-        <v>1.459846221532752</v>
+        <v>1.143819585889378</v>
       </c>
       <c r="J45" t="n">
-        <v>1.143819585889378</v>
+        <v>-0.9430051249367315</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.9954186553439839</v>
+        <v>-0.2855773870258911</v>
       </c>
       <c r="L45" t="n">
-        <v>0.2331638566186387</v>
+        <v>0.2898952264868822</v>
       </c>
       <c r="M45" t="n">
-        <v>0.3160266356433741</v>
+        <v>0.8550383128576291</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.8289069037011372</v>
+        <v>-0.5651430863707469</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.5651430863707469</v>
+        <v>-0.6574277379108406</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.6574277379108406</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>-0.08364897261811133</v>
-      </c>
-      <c r="R45" t="inlineStr">
+        <v>-1.222570824281587</v>
+      </c>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>凌佩儿</t>
         </is>
       </c>
+      <c r="R45" t="n">
+        <v>7</v>
+      </c>
       <c r="S45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T45" t="n">
-        <v>6</v>
-      </c>
-      <c r="U45" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
           <t>56015648</t>
         </is>
       </c>
+      <c r="B46" t="n">
+        <v>0.8387701288265708</v>
+      </c>
       <c r="C46" t="n">
-        <v>0.8387701288265708</v>
+        <v>0.692094829220478</v>
       </c>
       <c r="D46" t="n">
-        <v>0.692094829220478</v>
+        <v>1.526313240895801</v>
       </c>
       <c r="E46" t="n">
-        <v>1.526313240895801</v>
+        <v>1.882495939713326</v>
       </c>
       <c r="F46" t="n">
-        <v>1.882495939713326</v>
+        <v>1.540179137054211</v>
       </c>
       <c r="G46" t="n">
-        <v>1.540179137054211</v>
+        <v>1.116027100267851</v>
       </c>
       <c r="H46" t="n">
-        <v>1.116027100267851</v>
+        <v>1.66047389316508</v>
       </c>
       <c r="I46" t="n">
-        <v>1.66047389316508</v>
+        <v>1.649544841594279</v>
       </c>
       <c r="J46" t="n">
-        <v>1.649544841594279</v>
+        <v>0.6875431120692301</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.3561826988175247</v>
+        <v>-1.190401110492848</v>
       </c>
       <c r="L46" t="n">
-        <v>0.1466752996060927</v>
+        <v>0.1202947561108694</v>
       </c>
       <c r="M46" t="n">
-        <v>0.01092905157080071</v>
+        <v>-0.5335177413264285</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4241520367863598</v>
+        <v>0.6538124974372979</v>
       </c>
       <c r="O46" t="n">
-        <v>0.6538124974372979</v>
+        <v>1.877944222562078</v>
       </c>
       <c r="P46" t="n">
-        <v>1.877944222562078</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>-0.9160809836391766</v>
-      </c>
-      <c r="R46" t="inlineStr">
+        <v>2.531756719999375</v>
+      </c>
+      <c r="Q46" t="inlineStr">
         <is>
           <t>陈佳铭</t>
         </is>
       </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T46" t="n">
-        <v>3</v>
-      </c>
-      <c r="U46" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
           <t>56020297</t>
         </is>
       </c>
+      <c r="B47" t="n">
+        <v>1.402659495750682</v>
+      </c>
       <c r="C47" t="n">
-        <v>1.402659495750682</v>
+        <v>1.395977709118848</v>
       </c>
       <c r="D47" t="n">
-        <v>1.395977709118848</v>
+        <v>1.619436924734611</v>
       </c>
       <c r="E47" t="n">
-        <v>1.619436924734611</v>
+        <v>0.8847077705105094</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8847077705105094</v>
+        <v>1.88559535619031</v>
       </c>
       <c r="G47" t="n">
-        <v>1.88559535619031</v>
+        <v>1.704390809618291</v>
       </c>
       <c r="H47" t="n">
-        <v>1.704390809618291</v>
+        <v>0.793591634413823</v>
       </c>
       <c r="I47" t="n">
-        <v>0.793591634413823</v>
+        <v>0.8031544240986718</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8031544240986718</v>
+        <v>0.2167774289839286</v>
       </c>
       <c r="K47" t="n">
-        <v>0.7347291542241013</v>
+        <v>0.5112699386083382</v>
       </c>
       <c r="L47" t="n">
-        <v>0.006681786631834497</v>
+        <v>-1.092003721776487</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.009562789684848805</v>
+        <v>0.9012363855196196</v>
       </c>
       <c r="N47" t="n">
-        <v>0.1812045465720182</v>
+        <v>-1.993240107296106</v>
       </c>
       <c r="O47" t="n">
-        <v>-1.993240107296106</v>
+        <v>-0.2944925096244093</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.2944925096244093</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.5372800313353998</v>
-      </c>
-      <c r="R47" t="inlineStr">
+        <v>-2.287732616920516</v>
+      </c>
+      <c r="Q47" t="inlineStr">
         <is>
           <t>陈浩然</t>
         </is>
       </c>
+      <c r="R47" t="n">
+        <v>10</v>
+      </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T47" t="n">
-        <v>6</v>
-      </c>
-      <c r="U47" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
           <t>56024896</t>
         </is>
       </c>
+      <c r="B48" t="n">
+        <v>1.090474288729556</v>
+      </c>
       <c r="C48" t="n">
-        <v>1.090474288729556</v>
+        <v>1.974265647030946</v>
       </c>
       <c r="D48" t="n">
-        <v>1.974265647030946</v>
+        <v>0.9557396894880876</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9557396894880876</v>
+        <v>1.53695615932805</v>
       </c>
       <c r="F48" t="n">
-        <v>1.53695615932805</v>
+        <v>1.748432573961226</v>
       </c>
       <c r="G48" t="n">
-        <v>1.748432573961226</v>
+        <v>1.361742274469471</v>
       </c>
       <c r="H48" t="n">
-        <v>1.361742274469471</v>
+        <v>1.368069647208991</v>
       </c>
       <c r="I48" t="n">
-        <v>1.368069647208991</v>
+        <v>1.609393093174514</v>
       </c>
       <c r="J48" t="n">
-        <v>1.609393093174514</v>
+        <v>-0.1347345992414679</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.581216469839962</v>
+        <v>0.437309487702896</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.8837913583013901</v>
+        <v>-0.3803629267522357</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.2413234459655229</v>
+        <v>-0.2476508187050424</v>
       </c>
       <c r="N48" t="n">
-        <v>0.3866902994917552</v>
+        <v>-0.1327121080471936</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.1327121080471936</v>
+        <v>-0.5720440869443641</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.5720440869443641</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>-0.32543885699585</v>
-      </c>
-      <c r="R48" t="inlineStr">
+        <v>-0.7047561949915573</v>
+      </c>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>刘李浚</t>
         </is>
       </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T48" t="n">
-        <v>3</v>
-      </c>
-      <c r="U48" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
           <t>56027303</t>
         </is>
       </c>
+      <c r="B49" t="n">
+        <v>1.123135793020456</v>
+      </c>
       <c r="C49" t="n">
-        <v>1.123135793020456</v>
+        <v>1.24916222154287</v>
       </c>
       <c r="D49" t="n">
-        <v>1.24916222154287</v>
+        <v>1.819526024337572</v>
       </c>
       <c r="E49" t="n">
-        <v>1.819526024337572</v>
+        <v>1.381613656721327</v>
       </c>
       <c r="F49" t="n">
-        <v>1.381613656721327</v>
+        <v>1.741204810577295</v>
       </c>
       <c r="G49" t="n">
-        <v>1.741204810577295</v>
+        <v>1.102497730902895</v>
       </c>
       <c r="H49" t="n">
-        <v>1.102497730902895</v>
+        <v>1.788794504638254</v>
       </c>
       <c r="I49" t="n">
-        <v>1.788794504638254</v>
+        <v>0.7034179939830728</v>
       </c>
       <c r="J49" t="n">
-        <v>0.7034179939830728</v>
+        <v>0.6963902313171164</v>
       </c>
       <c r="K49" t="n">
-        <v>0.4379123676162451</v>
+        <v>-0.1324514351784569</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.1260264285224144</v>
+        <v>0.04758969406095859</v>
       </c>
       <c r="M49" t="n">
-        <v>1.085376510655181</v>
+        <v>0.3990797369198226</v>
       </c>
       <c r="N49" t="n">
-        <v>0.6387070796743999</v>
+        <v>-0.3514900428588641</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.3514900428588641</v>
+        <v>0.8288416664955731</v>
       </c>
       <c r="P49" t="n">
-        <v>0.8288416664955731</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1.010608227119441</v>
-      </c>
-      <c r="R49" t="inlineStr">
+        <v>0.4773516236367094</v>
+      </c>
+      <c r="Q49" t="inlineStr">
         <is>
           <t>谭天慧</t>
         </is>
       </c>
+      <c r="R49" t="n">
+        <v>12</v>
+      </c>
       <c r="S49" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T49" t="n">
-        <v>8</v>
-      </c>
-      <c r="U49" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
           <t>56035722</t>
         </is>
       </c>
+      <c r="B50" t="n">
+        <v>1.447846119811834</v>
+      </c>
       <c r="C50" t="n">
-        <v>1.447846119811834</v>
+        <v>0.7222254040193629</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7222254040193629</v>
+        <v>0.7581693145066696</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7581693145066696</v>
+        <v>1.365684429272859</v>
       </c>
       <c r="F50" t="n">
-        <v>1.365684429272859</v>
+        <v>1.732615628215454</v>
       </c>
       <c r="G50" t="n">
-        <v>1.732615628215454</v>
+        <v>1.891839613178151</v>
       </c>
       <c r="H50" t="n">
-        <v>1.891839613178151</v>
+        <v>1.496556689809699</v>
       </c>
       <c r="I50" t="n">
-        <v>1.496556689809699</v>
+        <v>0.937664220361774</v>
       </c>
       <c r="J50" t="n">
-        <v>0.937664220361774</v>
+        <v>-0.6896768053051644</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.6075151147661898</v>
+        <v>-0.6434590252534965</v>
       </c>
       <c r="L50" t="n">
-        <v>0.7256207157924711</v>
+        <v>-0.236058938405755</v>
       </c>
       <c r="M50" t="n">
-        <v>0.5588924694479254</v>
+        <v>0.9541753928163772</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.1592239849626969</v>
+        <v>-1.190234331222133</v>
       </c>
       <c r="O50" t="n">
-        <v>-1.190234331222133</v>
+        <v>-0.04621778005166766</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.04621778005166766</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>-0.6150193761480387</v>
-      </c>
-      <c r="R50" t="inlineStr">
+        <v>-1.2364521112738</v>
+      </c>
+      <c r="Q50" t="inlineStr">
         <is>
           <t>江凯翔</t>
         </is>
       </c>
+      <c r="R50" t="n">
+        <v>15</v>
+      </c>
       <c r="S50" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="T50" t="n">
-        <v>9</v>
-      </c>
-      <c r="U50" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
           <t>56040135</t>
         </is>
       </c>
+      <c r="B51" t="n">
+        <v>0.6694835088649004</v>
+      </c>
       <c r="C51" t="n">
-        <v>0.6694835088649004</v>
+        <v>1.962266791858592</v>
       </c>
       <c r="D51" t="n">
-        <v>1.962266791858592</v>
+        <v>1.158626632743194</v>
       </c>
       <c r="E51" t="n">
-        <v>1.158626632743194</v>
+        <v>1.554051417471596</v>
       </c>
       <c r="F51" t="n">
-        <v>1.554051417471596</v>
+        <v>1.748199995105682</v>
       </c>
       <c r="G51" t="n">
-        <v>1.748199995105682</v>
+        <v>1.893897769743712</v>
       </c>
       <c r="H51" t="n">
-        <v>1.893897769743712</v>
+        <v>1.256011350575572</v>
       </c>
       <c r="I51" t="n">
-        <v>1.256011350575572</v>
+        <v>1.329515334670417</v>
       </c>
       <c r="J51" t="n">
-        <v>1.329515334670417</v>
+        <v>0.4891431238782938</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.3954247847284023</v>
+        <v>0.4082153743869956</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.292783282993692</v>
+        <v>-0.49218864453011</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.07350398409484549</v>
+        <v>0.5643824350732949</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.1456977746380304</v>
+        <v>-1.056571079603405</v>
       </c>
       <c r="O51" t="n">
-        <v>-1.056571079603405</v>
+        <v>0.08092774949129833</v>
       </c>
       <c r="P51" t="n">
-        <v>0.08092774949129833</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.9695522888084742</v>
-      </c>
-      <c r="R51" t="inlineStr">
+        <v>-0.9756433301121067</v>
+      </c>
+      <c r="Q51" t="inlineStr">
         <is>
           <t>刘栩嘉</t>
         </is>
       </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T51" t="n">
-        <v>4</v>
-      </c>
-      <c r="U51" t="n">
         <v>6</v>
       </c>
     </row>
